--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C6CC8-EDF0-4199-B0EB-725F03ED3C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812650CE-7A8F-4D0E-83CB-EE11C05D550A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,11 +381,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -443,7 +441,7 @@
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B13" si="1">B3+1</f>
+        <f t="shared" ref="B4:B14" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -596,6 +594,22 @@
       <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14" si="3">C14-C13</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812650CE-7A8F-4D0E-83CB-EE11C05D550A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50A962-B7B8-4D37-B0FA-A1FF708EB2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>dia</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>aceleracion</t>
+  </si>
+  <si>
+    <t>muertos</t>
   </si>
 </sst>
 </file>
@@ -381,9 +385,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -392,7 +398,7 @@
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -405,8 +411,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43896</v>
       </c>
@@ -419,8 +428,11 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43897</v>
       </c>
@@ -435,13 +447,16 @@
         <f t="shared" ref="D3:D11" si="0">C3-C2</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B14" si="1">B3+1</f>
+        <f t="shared" ref="B4:B15" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -451,8 +466,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43899</v>
       </c>
@@ -467,8 +485,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43900</v>
       </c>
@@ -483,8 +504,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43901</v>
       </c>
@@ -499,8 +523,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43902</v>
       </c>
@@ -515,8 +542,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43903</v>
       </c>
@@ -531,8 +561,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43904</v>
       </c>
@@ -547,8 +580,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43905</v>
       </c>
@@ -563,8 +599,11 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43906</v>
       </c>
@@ -579,8 +618,11 @@
         <f t="shared" ref="D12:D13" si="2">C12-C11</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43907</v>
       </c>
@@ -595,8 +637,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43908</v>
       </c>
@@ -610,6 +655,329 @@
       <c r="D14" s="1">
         <f t="shared" ref="D14" si="3">C14-C13</f>
         <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>234</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ref="D15" si="4">C15-C14</f>
+        <v>89</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305DDB7-21EF-4064-9B3A-06591E83BC3A}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43896</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43897</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D15" si="0">C3-C2</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43898</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B15" si="1">B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43899</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43900</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>43901</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43903</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43904</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43905</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43906</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>117</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>234</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE50A962-B7B8-4D37-B0FA-A1FF708EB2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED9E114-ADB7-40EA-BCC5-FFB50A53E268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>dia</t>
   </si>
@@ -49,6 +50,42 @@
   </si>
   <si>
     <t>muertos</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Loreto</t>
+  </si>
+  <si>
+    <t>Lambayeque</t>
+  </si>
+  <si>
+    <t>Callao</t>
+  </si>
+  <si>
+    <t>Cusco</t>
+  </si>
+  <si>
+    <t>Ancash</t>
+  </si>
+  <si>
+    <t>Arequipa</t>
+  </si>
+  <si>
+    <t>La Libertad</t>
+  </si>
+  <si>
+    <t>Piura</t>
+  </si>
+  <si>
+    <t>Ica</t>
+  </si>
+  <si>
+    <t>Madre de Dios</t>
+  </si>
+  <si>
+    <t>Huanuco</t>
   </si>
 </sst>
 </file>
@@ -72,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,13 +141,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,6 +443,648 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>43896</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43897</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D15" si="0">C3-C2</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43898</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B15" si="1">B3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43899</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43900</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43901</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>43902</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>43903</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>32</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>2</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>43904</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
+        <v>2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>2</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>43905</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>71</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>2</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>43906</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>86</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
+        <v>2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>43907</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>117</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>96</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>2</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>2</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>43908</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>145</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>111</v>
+      </c>
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>6</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>43909</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>234</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>194</v>
+      </c>
+      <c r="G15" s="8">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8">
+        <v>5</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4</v>
+      </c>
+      <c r="K15" s="8">
+        <v>3</v>
+      </c>
+      <c r="L15" s="8">
+        <v>3</v>
+      </c>
+      <c r="M15" s="8">
+        <v>2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>2</v>
+      </c>
+      <c r="O15" s="8">
+        <v>2</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA75DE2-DFBF-4DD1-886E-7BF3BF81DB3E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -444,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D11" si="0">C3-C2</f>
+        <f t="shared" ref="D3:D15" si="0">C3-C2</f>
         <v>5</v>
       </c>
       <c r="E3" s="1">
@@ -615,7 +1315,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D13" si="2">C12-C11</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E12" s="1">
@@ -634,7 +1334,7 @@
         <v>117</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E13" s="1">
@@ -653,7 +1353,7 @@
         <v>145</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14" si="3">C14-C13</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E14" s="1">
@@ -672,7 +1372,7 @@
         <v>234</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15" si="4">C15-C14</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="E15" s="1">
@@ -684,12 +1384,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305DDB7-21EF-4064-9B3A-06591E83BC3A}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +1399,7 @@
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -715,8 +1415,44 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43896</v>
       </c>
@@ -733,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43897</v>
       </c>
@@ -752,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43898</v>
       </c>
@@ -771,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43899</v>
       </c>
@@ -790,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43900</v>
       </c>
@@ -809,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43901</v>
       </c>
@@ -828,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43902</v>
       </c>
@@ -847,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43903</v>
       </c>
@@ -865,8 +1601,23 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43904</v>
       </c>
@@ -884,8 +1635,23 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43905</v>
       </c>
@@ -903,8 +1669,38 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43906</v>
       </c>
@@ -922,8 +1718,38 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43907</v>
       </c>
@@ -941,8 +1767,41 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43908</v>
       </c>
@@ -960,8 +1819,44 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>111</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43909</v>
       </c>
@@ -978,6 +1873,42 @@
       </c>
       <c r="E15" s="1">
         <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>194</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED9E114-ADB7-40EA-BCC5-FFB50A53E268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79879F00-F6E9-4944-90F9-0A39F498525B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>dia</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Huanuco</t>
+  </si>
+  <si>
+    <t>letalidad</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +457,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
@@ -477,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -885,9 +889,7 @@
       <c r="F12" s="8">
         <v>70</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="8">
         <v>3</v>
       </c>
@@ -897,7 +899,9 @@
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
       <c r="L12" s="8">
         <v>2</v>
       </c>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79879F00-F6E9-4944-90F9-0A39F498525B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77662A3D-56D0-4FB2-BC1A-A38DD5B51F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>Huanuco</t>
   </si>
   <si>
-    <t>letalidad</t>
+    <t>decesos</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77662A3D-56D0-4FB2-BC1A-A38DD5B51F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C34398-3A2D-4EB7-892F-F971FA2FBCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>dia</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>decesos</t>
+  </si>
+  <si>
+    <t>Junin</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -519,8 +522,11 @@
       <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43896</v>
       </c>
@@ -549,7 +555,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43897</v>
       </c>
@@ -580,12 +586,12 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" si="1">B3+1</f>
+        <f t="shared" ref="B4:B16" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -611,7 +617,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43899</v>
       </c>
@@ -642,7 +648,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43900</v>
       </c>
@@ -673,7 +679,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43901</v>
       </c>
@@ -704,7 +710,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43902</v>
       </c>
@@ -735,7 +741,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43903</v>
       </c>
@@ -776,7 +782,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43904</v>
       </c>
@@ -817,7 +823,7 @@
       </c>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43905</v>
       </c>
@@ -868,7 +874,7 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43906</v>
       </c>
@@ -919,7 +925,7 @@
       </c>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43907</v>
       </c>
@@ -972,7 +978,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43908</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43909</v>
       </c>
@@ -1080,6 +1086,64 @@
       </c>
       <c r="Q15" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>43910</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>263</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16" si="2">C16-C15</f>
+        <v>29</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>212</v>
+      </c>
+      <c r="G16" s="8">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8">
+        <v>5</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8">
+        <v>4</v>
+      </c>
+      <c r="L16" s="8">
+        <v>3</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2</v>
+      </c>
+      <c r="O16" s="8">
+        <v>2</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C34398-3A2D-4EB7-892F-F971FA2FBCBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A107F-88F5-4E3F-8F88-C9738BBDC9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
+    <sheet name="edad" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>dia</t>
   </si>
@@ -92,6 +95,78 @@
   </si>
   <si>
     <t>Junin</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Apurimac</t>
+  </si>
+  <si>
+    <t>Ayacucho</t>
+  </si>
+  <si>
+    <t>Cajamarca</t>
+  </si>
+  <si>
+    <t>Huancavelica</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>Puno</t>
+  </si>
+  <si>
+    <t>San Martin</t>
+  </si>
+  <si>
+    <t>Tumbes</t>
+  </si>
+  <si>
+    <t>Ucayali</t>
+  </si>
+  <si>
+    <t>Moquegua</t>
+  </si>
+  <si>
+    <t>Tacna</t>
+  </si>
+  <si>
+    <t>0 a 11 años</t>
+  </si>
+  <si>
+    <t>12 a 17 años</t>
+  </si>
+  <si>
+    <t>18 a 29 años</t>
+  </si>
+  <si>
+    <t>30 a 59 años</t>
+  </si>
+  <si>
+    <t>60 o más años</t>
+  </si>
+  <si>
+    <t>Sin registro</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>hospitalizados</t>
+  </si>
+  <si>
+    <t>UCI</t>
   </si>
 </sst>
 </file>
@@ -115,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +266,248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>122599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58570497-F0F4-4662-BABD-B3FA6F293476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="161925"/>
+          <a:ext cx="9809524" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88155E68-7989-4F9C-92A5-16ADA735FA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7743825" y="2390775"/>
+          <a:ext cx="5343525" cy="19052"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1F9BFF-B8B1-44B9-BC7E-08878E7F6984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7867650" y="800100"/>
+          <a:ext cx="5343525" cy="19052"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>598762</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C140C2-2397-48E1-B2A6-744A2B8F84D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="1295400"/>
+          <a:ext cx="10504762" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141562</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6BA1D4-88EE-46BA-A34A-798388C472C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="523875"/>
+          <a:ext cx="10504762" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,9 +792,18 @@
     <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -525,8 +858,44 @@
       <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43896</v>
       </c>
@@ -555,7 +924,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43897</v>
       </c>
@@ -586,12 +955,12 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B16" si="1">B3+1</f>
+        <f t="shared" ref="B4:B18" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -617,7 +986,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43899</v>
       </c>
@@ -648,7 +1017,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43900</v>
       </c>
@@ -679,7 +1048,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43901</v>
       </c>
@@ -710,7 +1079,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43902</v>
       </c>
@@ -741,7 +1110,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43903</v>
       </c>
@@ -782,7 +1151,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43904</v>
       </c>
@@ -823,7 +1192,7 @@
       </c>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43905</v>
       </c>
@@ -874,7 +1243,7 @@
       </c>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43906</v>
       </c>
@@ -925,7 +1294,7 @@
       </c>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43907</v>
       </c>
@@ -978,7 +1347,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43908</v>
       </c>
@@ -1033,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43909</v>
       </c>
@@ -1088,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43910</v>
       </c>
@@ -1144,6 +1513,122 @@
       </c>
       <c r="R16" s="8">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>43911</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>318</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17" si="3">C17-C16</f>
+        <v>55</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>241</v>
+      </c>
+      <c r="G17" s="8">
+        <v>14</v>
+      </c>
+      <c r="H17" s="8">
+        <v>8</v>
+      </c>
+      <c r="I17" s="8">
+        <v>6</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8">
+        <v>4</v>
+      </c>
+      <c r="L17" s="8">
+        <v>4</v>
+      </c>
+      <c r="M17" s="8">
+        <v>2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>5</v>
+      </c>
+      <c r="O17" s="8">
+        <v>18</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1</v>
+      </c>
+      <c r="R17" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>43911</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>363</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18" si="4">C18-C17</f>
+        <v>45</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>278</v>
+      </c>
+      <c r="G18" s="8">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8">
+        <v>8</v>
+      </c>
+      <c r="I18" s="8">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8">
+        <v>4</v>
+      </c>
+      <c r="L18" s="8">
+        <v>7</v>
+      </c>
+      <c r="M18" s="8">
+        <v>4</v>
+      </c>
+      <c r="N18" s="8">
+        <v>5</v>
+      </c>
+      <c r="O18" s="8">
+        <v>19</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1152,6 +1637,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49973FC-C21B-419D-86C5-7EE8496B9B44}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA75DE2-DFBF-4DD1-886E-7BF3BF81DB3E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -1452,7 +1968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305DDB7-21EF-4064-9B3A-06591E83BC3A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -1982,4 +2498,263 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4C348-BB07-4639-A7E1-78743117ECCB}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>234</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="0">SUM(C2:C7)</f>
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>234</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+      <c r="D9">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2EFCE-C058-4F04-B471-51945290F2EA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A107F-88F5-4E3F-8F88-C9738BBDC9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{468D9DB2-A147-4358-8283-D58E5FF3EDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>dia</t>
   </si>
@@ -776,7 +776,7 @@
   <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1469,7 @@
         <v>263</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" ref="D16" si="2">C16-C15</f>
+        <f>C16-C15</f>
         <v>29</v>
       </c>
       <c r="E16" s="8">
@@ -1527,7 +1527,7 @@
         <v>318</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17" si="3">C17-C16</f>
+        <f>C17-C16</f>
         <v>55</v>
       </c>
       <c r="E17" s="8">
@@ -1575,7 +1575,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="1"/>
@@ -1585,7 +1585,7 @@
         <v>363</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" ref="D18" si="4">C18-C17</f>
+        <f>C18-C17</f>
         <v>45</v>
       </c>
       <c r="E18" s="8">
@@ -1638,28 +1638,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49973FC-C21B-419D-86C5-7EE8496B9B44}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>43912</v>
+      </c>
+      <c r="B2">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C2">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2614,11 +2623,11 @@
         <v>234</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D8" si="0">SUM(C2:C7)</f>
+        <f>SUM(C2:C7)</f>
         <v>126</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>SUM(D2:D7)</f>
         <v>108</v>
       </c>
     </row>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{468D9DB2-A147-4358-8283-D58E5FF3EDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B3676-C7B2-41AA-823F-31A49BB90DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
-    <sheet name="edad" sheetId="6" r:id="rId6"/>
+    <sheet name="distritos" sheetId="8" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId6"/>
+    <sheet name="edad" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -269,6 +270,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342327</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D3AAE3-5C3C-4429-833E-7F03D155C5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="133350"/>
+          <a:ext cx="4580952" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -461,7 +511,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -773,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +1010,7 @@
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B18" si="1">B3+1</f>
+        <f t="shared" ref="B4:B19" si="1">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -1515,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43911</v>
       </c>
@@ -1573,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43912</v>
       </c>
@@ -1629,6 +1679,67 @@
       </c>
       <c r="R18" s="8">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>43912</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>395</v>
+      </c>
+      <c r="D19" s="8">
+        <f>C19-C18</f>
+        <v>32</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>307</v>
+      </c>
+      <c r="G19" s="8">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8">
+        <v>8</v>
+      </c>
+      <c r="I19" s="8">
+        <v>8</v>
+      </c>
+      <c r="J19" s="8">
+        <v>6</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4</v>
+      </c>
+      <c r="L19" s="8">
+        <v>7</v>
+      </c>
+      <c r="M19" s="8">
+        <v>2</v>
+      </c>
+      <c r="N19" s="8">
+        <v>4</v>
+      </c>
+      <c r="O19" s="8">
+        <v>19</v>
+      </c>
+      <c r="P19" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1677,6 +1788,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ADEF6E-6768-4EE4-A06F-16116EB8E717}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA75DE2-DFBF-4DD1-886E-7BF3BF81DB3E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -1977,7 +2101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305DDB7-21EF-4064-9B3A-06591E83BC3A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -2509,7 +2633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4C348-BB07-4639-A7E1-78743117ECCB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2651,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2EFCE-C058-4F04-B471-51945290F2EA}">
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943B3676-C7B2-41AA-823F-31A49BB90DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCE535C-6797-430F-AC79-D9C856ED196C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId2"/>
-    <sheet name="distritos" sheetId="8" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId5"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId6"/>
-    <sheet name="edad" sheetId="6" r:id="rId7"/>
+    <sheet name="Hoja6" sheetId="10" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="9" r:id="rId3"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId4"/>
+    <sheet name="distritos" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId7"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId8"/>
+    <sheet name="edad" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>dia</t>
   </si>
@@ -168,6 +170,12 @@
   </si>
   <si>
     <t>UCI</t>
+  </si>
+  <si>
+    <t>dia de emergencia</t>
+  </si>
+  <si>
+    <t>al medio dia</t>
   </si>
 </sst>
 </file>
@@ -229,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +260,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,37 +834,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -861,107 +873,110 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43896</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -973,8 +988,9 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43897</v>
       </c>
@@ -982,17 +998,17 @@
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D15" si="0">C3-C2</f>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E15" si="0">D3-D2</f>
         <v>5</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1004,26 +1020,27 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B19" si="1">B3+1</f>
+        <f t="shared" ref="B4:B20" si="1">B3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1035,8 +1052,9 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43899</v>
       </c>
@@ -1044,17 +1062,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1066,8 +1084,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43900</v>
       </c>
@@ -1075,17 +1094,17 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1097,8 +1116,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43901</v>
       </c>
@@ -1106,17 +1126,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1128,8 +1148,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43902</v>
       </c>
@@ -1137,17 +1158,17 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -1159,8 +1180,9 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43903</v>
       </c>
@@ -1168,40 +1190,41 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <v>38</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
       <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
         <v>32</v>
       </c>
-      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8">
-        <v>2</v>
-      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8"/>
       <c r="M9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="8">
+        <v>2</v>
+      </c>
       <c r="O9" s="8"/>
-      <c r="P9" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43904</v>
       </c>
@@ -1209,40 +1232,41 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <v>43</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
       <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
         <v>37</v>
       </c>
-      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8">
-        <v>2</v>
-      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8"/>
       <c r="M10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
       <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43905</v>
       </c>
@@ -1250,50 +1274,51 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
         <v>71</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
       <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>58</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="8">
         <v>2</v>
       </c>
       <c r="N11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43906</v>
       </c>
@@ -1302,49 +1327,52 @@
         <v>11</v>
       </c>
       <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
         <v>86</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
       <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
         <v>70</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>3</v>
-      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8">
         <v>3</v>
       </c>
       <c r="J12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="8">
         <v>1</v>
       </c>
       <c r="L12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="8">
         <v>2</v>
       </c>
       <c r="N12" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43907</v>
       </c>
@@ -1353,51 +1381,54 @@
         <v>12</v>
       </c>
       <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
         <v>117</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
       <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>96</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
       <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
         <v>6</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>4</v>
       </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
       <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="L13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="8">
         <v>2</v>
       </c>
       <c r="N13" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43908</v>
       </c>
@@ -1406,32 +1437,32 @@
         <v>13</v>
       </c>
       <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
         <v>145</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
       <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>111</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="8">
         <v>10</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>6</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>5</v>
       </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
       <c r="K14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="8">
         <v>2</v>
@@ -1446,13 +1477,16 @@
         <v>2</v>
       </c>
       <c r="P14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43909</v>
       </c>
@@ -1461,38 +1495,38 @@
         <v>14</v>
       </c>
       <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
         <v>234</v>
       </c>
-      <c r="D15" s="8">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>194</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="8">
         <v>11</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>6</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>5</v>
       </c>
-      <c r="J15" s="8">
+      <c r="K15" s="8">
         <v>4</v>
-      </c>
-      <c r="K15" s="8">
-        <v>3</v>
       </c>
       <c r="L15" s="8">
         <v>3</v>
       </c>
       <c r="M15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="8">
         <v>2</v>
@@ -1501,13 +1535,16 @@
         <v>2</v>
       </c>
       <c r="P15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43910</v>
       </c>
@@ -1516,39 +1553,39 @@
         <v>15</v>
       </c>
       <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
         <v>263</v>
       </c>
-      <c r="D16" s="8">
-        <f>C16-C15</f>
+      <c r="E16" s="8">
+        <f>D16-D15</f>
         <v>29</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>212</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>12</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>6</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>5</v>
-      </c>
-      <c r="J16" s="8">
-        <v>4</v>
       </c>
       <c r="K16" s="8">
         <v>4</v>
       </c>
       <c r="L16" s="8">
+        <v>4</v>
+      </c>
+      <c r="M16" s="8">
         <v>3</v>
       </c>
-      <c r="M16" s="8">
-        <v>2</v>
-      </c>
       <c r="N16" s="8">
         <v>2</v>
       </c>
@@ -1556,16 +1593,19 @@
         <v>2</v>
       </c>
       <c r="P16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="8">
         <v>1</v>
       </c>
       <c r="R16" s="8">
+        <v>1</v>
+      </c>
+      <c r="S16" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43911</v>
       </c>
@@ -1574,29 +1614,29 @@
         <v>16</v>
       </c>
       <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8">
         <v>318</v>
       </c>
-      <c r="D17" s="8">
-        <f>C17-C16</f>
+      <c r="E17" s="8">
+        <f>D17-D16</f>
         <v>55</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>5</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="8">
         <v>241</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="8">
         <v>14</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>8</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>6</v>
-      </c>
-      <c r="J17" s="8">
-        <v>4</v>
       </c>
       <c r="K17" s="8">
         <v>4</v>
@@ -1605,25 +1645,28 @@
         <v>4</v>
       </c>
       <c r="M17" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="8">
+        <v>2</v>
+      </c>
+      <c r="O17" s="8">
         <v>5</v>
       </c>
-      <c r="O17" s="8">
+      <c r="P17" s="8">
         <v>18</v>
       </c>
-      <c r="P17" s="8">
-        <v>1</v>
-      </c>
       <c r="Q17" s="8">
         <v>1</v>
       </c>
       <c r="R17" s="8">
+        <v>1</v>
+      </c>
+      <c r="S17" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43912</v>
       </c>
@@ -1632,114 +1675,184 @@
         <v>17</v>
       </c>
       <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8">
         <v>363</v>
       </c>
-      <c r="D18" s="8">
-        <f>C18-C17</f>
+      <c r="E18" s="8">
+        <f>D18-D17</f>
         <v>45</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="G18" s="8">
         <v>278</v>
       </c>
-      <c r="G18" s="8">
+      <c r="H18" s="8">
         <v>16</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>8</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>6</v>
-      </c>
-      <c r="J18" s="8">
-        <v>4</v>
       </c>
       <c r="K18" s="8">
         <v>4</v>
       </c>
       <c r="L18" s="8">
+        <v>4</v>
+      </c>
+      <c r="M18" s="8">
         <v>7</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>4</v>
       </c>
-      <c r="N18" s="8">
+      <c r="O18" s="8">
         <v>5</v>
       </c>
-      <c r="O18" s="8">
+      <c r="P18" s="8">
         <v>19</v>
       </c>
-      <c r="P18" s="8">
-        <v>1</v>
-      </c>
       <c r="Q18" s="8">
         <v>1</v>
       </c>
       <c r="R18" s="8">
+        <v>1</v>
+      </c>
+      <c r="S18" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B19" s="8">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C19" s="8">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8">
         <v>395</v>
       </c>
-      <c r="D19" s="8">
-        <f>C19-C18</f>
+      <c r="E19" s="8">
         <v>32</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>307</v>
       </c>
-      <c r="G19" s="8">
+      <c r="H19" s="8">
         <v>16</v>
-      </c>
-      <c r="H19" s="8">
-        <v>8</v>
       </c>
       <c r="I19" s="8">
         <v>8</v>
       </c>
       <c r="J19" s="8">
+        <v>8</v>
+      </c>
+      <c r="K19" s="8">
         <v>6</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>4</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>7</v>
       </c>
-      <c r="M19" s="8">
-        <v>2</v>
-      </c>
       <c r="N19" s="8">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8">
         <v>4</v>
       </c>
-      <c r="O19" s="8">
+      <c r="P19" s="8">
         <v>19</v>
       </c>
-      <c r="P19" s="8">
-        <v>2</v>
-      </c>
       <c r="Q19" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="8">
+        <v>1</v>
+      </c>
+      <c r="S19" s="8">
         <v>10</v>
       </c>
-      <c r="AA19">
-        <v>1</v>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>43914</v>
+      </c>
+      <c r="B20" s="8">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8">
+        <v>416</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E19:E20" si="2">D20-D19</f>
+        <v>21</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>322</v>
+      </c>
+      <c r="H20" s="8">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8">
+        <v>8</v>
+      </c>
+      <c r="J20" s="8">
+        <v>8</v>
+      </c>
+      <c r="K20" s="8">
+        <v>6</v>
+      </c>
+      <c r="L20" s="8">
+        <v>4</v>
+      </c>
+      <c r="M20" s="8">
+        <v>9</v>
+      </c>
+      <c r="N20" s="8">
+        <v>2</v>
+      </c>
+      <c r="O20" s="8">
+        <v>5</v>
+      </c>
+      <c r="P20" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>2</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1</v>
+      </c>
+      <c r="S20" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1748,6 +1861,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85C99E3-EBDD-4539-8A6F-F0A7A14DC87E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D3763C-0359-41B9-A88E-D43678C96FA1}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>43913</v>
+      </c>
+      <c r="B1" s="8">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8">
+        <v>395</v>
+      </c>
+      <c r="E1" s="8">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8">
+        <v>307</v>
+      </c>
+      <c r="H1" s="8">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8">
+        <v>7</v>
+      </c>
+      <c r="N1" s="8">
+        <v>2</v>
+      </c>
+      <c r="O1" s="8">
+        <v>4</v>
+      </c>
+      <c r="P1" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>2</v>
+      </c>
+      <c r="R1" s="8">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8">
+        <v>10</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49973FC-C21B-419D-86C5-7EE8496B9B44}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1787,11 +1994,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ADEF6E-6768-4EE4-A06F-16116EB8E717}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1800,7 +2007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA75DE2-DFBF-4DD1-886E-7BF3BF81DB3E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2101,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305DDB7-21EF-4064-9B3A-06591E83BC3A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -2633,7 +2840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4C348-BB07-4639-A7E1-78743117ECCB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2775,7 +2982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2EFCE-C058-4F04-B471-51945290F2EA}">
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/data/2020/2020-03-18/covid19peru.xlsx
+++ b/data/2020/2020-03-18/covid19peru.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABCN\Github\manos-a-la-data\data\2020\2020-03-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCE535C-6797-430F-AC79-D9C856ED196C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C4ACEB-8047-47F1-A502-A2E3C5853F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja6" sheetId="10" r:id="rId2"/>
-    <sheet name="Hoja5" sheetId="9" r:id="rId3"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId4"/>
-    <sheet name="distritos" sheetId="8" r:id="rId5"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId7"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId8"/>
-    <sheet name="edad" sheetId="6" r:id="rId9"/>
+    <sheet name="Hoja8" sheetId="11" r:id="rId2"/>
+    <sheet name="Hoja6" sheetId="10" r:id="rId3"/>
+    <sheet name="Hoja5" sheetId="9" r:id="rId4"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId5"/>
+    <sheet name="distritos" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId8"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId9"/>
+    <sheet name="edad" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>dia</t>
   </si>
@@ -176,6 +177,18 @@
   </si>
   <si>
     <t>al medio dia</t>
+  </si>
+  <si>
+    <t>recuperados</t>
+  </si>
+  <si>
+    <t>pruebas</t>
+  </si>
+  <si>
+    <t>pruebas acumuladas</t>
+  </si>
+  <si>
+    <t>casos descartados</t>
   </si>
 </sst>
 </file>
@@ -834,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,25 +860,29 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -885,82 +902,94 @@
         <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>43896</v>
       </c>
@@ -977,10 +1006,20 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>155</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2</f>
+        <v>155</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2-D2</f>
+        <v>154</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -989,8 +1028,12 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43897</v>
       </c>
@@ -1009,10 +1052,20 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1">
+        <f>I2+H3</f>
+        <v>219</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J21" si="1">I3-D3</f>
+        <v>213</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1021,13 +1074,17 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43898</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B20" si="1">B3+1</f>
+        <f t="shared" ref="B4:B21" si="2">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
@@ -1041,10 +1098,20 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I21" si="3">I3+H4</f>
+        <v>258</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1053,13 +1120,17 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43899</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
@@ -1073,10 +1144,20 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1085,13 +1166,17 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43900</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
@@ -1105,10 +1190,20 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>367</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1117,13 +1212,17 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43901</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
@@ -1137,10 +1236,20 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>347</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>714</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>697</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1149,13 +1258,17 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>43902</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C8" s="8"/>
@@ -1169,10 +1282,20 @@
       <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>191</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>905</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>883</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1181,13 +1304,17 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>43903</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C9" s="8"/>
@@ -1201,35 +1328,49 @@
       <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>327</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>1232</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>1194</v>
+      </c>
+      <c r="K9" s="8">
         <v>32</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="8">
-        <v>2</v>
-      </c>
-      <c r="N9" s="8">
-        <v>2</v>
-      </c>
-      <c r="O9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>2</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>43904</v>
       </c>
       <c r="B10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C10" s="8"/>
@@ -1243,35 +1384,49 @@
       <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>313</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>1545</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>1502</v>
+      </c>
+      <c r="K10" s="8">
         <v>37</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="8">
-        <v>2</v>
-      </c>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-      <c r="O10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>2</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
+        <v>1</v>
+      </c>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>43905</v>
       </c>
       <c r="B11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C11" s="8"/>
@@ -1285,24 +1440,26 @@
       <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>277</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>1822</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>1751</v>
+      </c>
+      <c r="K11" s="8">
         <v>58</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
+      <c r="L11" s="8"/>
       <c r="M11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="8">
         <v>2</v>
@@ -1311,19 +1468,31 @@
         <v>1</v>
       </c>
       <c r="P11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R11" s="8">
+        <v>2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>1</v>
+      </c>
+      <c r="T11" s="8">
+        <v>2</v>
+      </c>
+      <c r="U11" s="8">
+        <v>1</v>
+      </c>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>43906</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C12" s="8">
@@ -1339,45 +1508,59 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>493</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>2315</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>2229</v>
+      </c>
+      <c r="K12" s="8">
         <v>70</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
         <v>3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="N12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>2</v>
-      </c>
-      <c r="N12" s="8">
-        <v>2</v>
-      </c>
       <c r="O12" s="8">
         <v>1</v>
       </c>
       <c r="P12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1</v>
+      </c>
+      <c r="T12" s="8">
+        <v>2</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>43907</v>
       </c>
       <c r="B13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C13" s="8">
@@ -1393,47 +1576,61 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>482</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>2797</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>2680</v>
+      </c>
+      <c r="K13" s="8">
         <v>96</v>
       </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
         <v>6</v>
       </c>
-      <c r="J13" s="8">
+      <c r="N13" s="8">
         <v>4</v>
       </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>2</v>
-      </c>
-      <c r="N13" s="8">
-        <v>2</v>
-      </c>
       <c r="O13" s="8">
         <v>1</v>
       </c>
       <c r="P13" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="8">
-        <v>1</v>
-      </c>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R13" s="8">
+        <v>2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
+        <v>2</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>43908</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C14" s="8">
@@ -1449,49 +1646,63 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>278</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>3075</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>2930</v>
+      </c>
+      <c r="K14" s="8">
         <v>111</v>
       </c>
-      <c r="H14" s="8">
+      <c r="L14" s="8">
         <v>10</v>
       </c>
-      <c r="I14" s="8">
+      <c r="M14" s="8">
         <v>6</v>
       </c>
-      <c r="J14" s="8">
+      <c r="N14" s="8">
         <v>5</v>
       </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>2</v>
-      </c>
-      <c r="M14" s="8">
-        <v>2</v>
-      </c>
-      <c r="N14" s="8">
-        <v>2</v>
-      </c>
       <c r="O14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="8">
         <v>2</v>
       </c>
       <c r="Q14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="S14" s="8">
+        <v>2</v>
+      </c>
+      <c r="T14" s="8">
+        <v>2</v>
+      </c>
+      <c r="U14" s="8">
+        <v>1</v>
+      </c>
+      <c r="V14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>43909</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C15" s="8">
@@ -1507,49 +1718,63 @@
       <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>766</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>3841</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>3607</v>
+      </c>
+      <c r="K15" s="8">
         <v>194</v>
       </c>
-      <c r="H15" s="8">
+      <c r="L15" s="8">
         <v>11</v>
       </c>
-      <c r="I15" s="8">
+      <c r="M15" s="8">
         <v>6</v>
       </c>
-      <c r="J15" s="8">
+      <c r="N15" s="8">
         <v>5</v>
       </c>
-      <c r="K15" s="8">
+      <c r="O15" s="8">
         <v>4</v>
       </c>
-      <c r="L15" s="8">
+      <c r="P15" s="8">
         <v>3</v>
       </c>
-      <c r="M15" s="8">
+      <c r="Q15" s="8">
         <v>3</v>
       </c>
-      <c r="N15" s="8">
-        <v>2</v>
-      </c>
-      <c r="O15" s="8">
-        <v>2</v>
-      </c>
-      <c r="P15" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>1</v>
-      </c>
       <c r="R15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>2</v>
+      </c>
+      <c r="T15" s="8">
+        <v>2</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>43910</v>
       </c>
       <c r="B16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C16" s="8">
@@ -1563,54 +1788,68 @@
         <v>29</v>
       </c>
       <c r="F16" s="8">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>457</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>4298</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>4035</v>
+      </c>
+      <c r="K16" s="8">
+        <v>212</v>
+      </c>
+      <c r="L16" s="8">
+        <v>12</v>
+      </c>
+      <c r="M16" s="8">
+        <v>6</v>
+      </c>
+      <c r="N16" s="8">
+        <v>5</v>
+      </c>
+      <c r="O16" s="8">
+        <v>4</v>
+      </c>
+      <c r="P16" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="8">
-        <v>212</v>
-      </c>
-      <c r="H16" s="8">
-        <v>12</v>
-      </c>
-      <c r="I16" s="8">
-        <v>6</v>
-      </c>
-      <c r="J16" s="8">
-        <v>5</v>
-      </c>
-      <c r="K16" s="8">
-        <v>4</v>
-      </c>
-      <c r="L16" s="8">
-        <v>4</v>
-      </c>
-      <c r="M16" s="8">
-        <v>3</v>
-      </c>
-      <c r="N16" s="8">
-        <v>2</v>
-      </c>
-      <c r="O16" s="8">
-        <v>2</v>
-      </c>
-      <c r="P16" s="8">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>1</v>
-      </c>
       <c r="R16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="8">
+        <v>2</v>
+      </c>
+      <c r="T16" s="8">
+        <v>2</v>
+      </c>
+      <c r="U16" s="8">
+        <v>1</v>
+      </c>
+      <c r="V16" s="8">
+        <v>1</v>
+      </c>
+      <c r="W16" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>43911</v>
       </c>
       <c r="B17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C17" s="8">
@@ -1626,52 +1865,66 @@
       <c r="F17" s="8">
         <v>5</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>687</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>4985</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>4667</v>
+      </c>
+      <c r="K17" s="8">
         <v>241</v>
       </c>
-      <c r="H17" s="8">
+      <c r="L17" s="8">
         <v>14</v>
       </c>
-      <c r="I17" s="8">
+      <c r="M17" s="8">
         <v>8</v>
       </c>
-      <c r="J17" s="8">
+      <c r="N17" s="8">
         <v>6</v>
       </c>
-      <c r="K17" s="8">
+      <c r="O17" s="8">
         <v>4</v>
       </c>
-      <c r="L17" s="8">
+      <c r="P17" s="8">
         <v>4</v>
       </c>
-      <c r="M17" s="8">
+      <c r="Q17" s="8">
         <v>4</v>
       </c>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="R17" s="8">
+        <v>2</v>
+      </c>
+      <c r="S17" s="8">
         <v>5</v>
       </c>
-      <c r="P17" s="8">
+      <c r="T17" s="8">
         <v>18</v>
       </c>
-      <c r="Q17" s="8">
-        <v>1</v>
-      </c>
-      <c r="R17" s="8">
-        <v>1</v>
-      </c>
-      <c r="S17" s="8">
+      <c r="U17" s="8">
+        <v>1</v>
+      </c>
+      <c r="V17" s="8">
+        <v>1</v>
+      </c>
+      <c r="W17" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>43912</v>
       </c>
       <c r="B18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C18" s="8">
@@ -1687,51 +1940,66 @@
       <c r="F18" s="8">
         <v>5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1199</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>6184</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>5821</v>
+      </c>
+      <c r="K18" s="8">
         <v>278</v>
       </c>
-      <c r="H18" s="8">
+      <c r="L18" s="8">
         <v>16</v>
       </c>
-      <c r="I18" s="8">
+      <c r="M18" s="8">
         <v>8</v>
       </c>
-      <c r="J18" s="8">
+      <c r="N18" s="8">
         <v>6</v>
       </c>
-      <c r="K18" s="8">
+      <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="L18" s="8">
+      <c r="P18" s="8">
         <v>4</v>
       </c>
-      <c r="M18" s="8">
+      <c r="Q18" s="8">
         <v>7</v>
       </c>
-      <c r="N18" s="8">
+      <c r="R18" s="8">
         <v>4</v>
       </c>
-      <c r="O18" s="8">
+      <c r="S18" s="8">
         <v>5</v>
       </c>
-      <c r="P18" s="8">
+      <c r="T18" s="8">
         <v>19</v>
       </c>
-      <c r="Q18" s="8">
-        <v>1</v>
-      </c>
-      <c r="R18" s="8">
-        <v>1</v>
-      </c>
-      <c r="S18" s="8">
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+      <c r="V18" s="8">
+        <v>1</v>
+      </c>
+      <c r="W18" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>43913</v>
       </c>
       <c r="B19" s="8">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C19" s="8">
@@ -1746,54 +2014,69 @@
       <c r="F19" s="8">
         <v>5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>480</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>6664</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>6269</v>
+      </c>
+      <c r="K19" s="8">
         <v>307</v>
       </c>
-      <c r="H19" s="8">
+      <c r="L19" s="8">
         <v>16</v>
       </c>
-      <c r="I19" s="8">
+      <c r="M19" s="8">
         <v>8</v>
       </c>
-      <c r="J19" s="8">
+      <c r="N19" s="8">
         <v>8</v>
       </c>
-      <c r="K19" s="8">
+      <c r="O19" s="8">
         <v>6</v>
       </c>
-      <c r="L19" s="8">
+      <c r="P19" s="8">
         <v>4</v>
       </c>
-      <c r="M19" s="8">
+      <c r="Q19" s="8">
         <v>7</v>
       </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="R19" s="8">
+        <v>2</v>
+      </c>
+      <c r="S19" s="8">
         <v>4</v>
       </c>
-      <c r="P19" s="8">
+      <c r="T19" s="8">
         <v>19</v>
       </c>
-      <c r="Q19" s="8">
-        <v>2</v>
-      </c>
-      <c r="R19" s="8">
-        <v>1</v>
-      </c>
-      <c r="S19" s="8">
+      <c r="U19" s="8">
+        <v>2</v>
+      </c>
+      <c r="V19" s="8">
+        <v>1</v>
+      </c>
+      <c r="W19" s="8">
         <v>10</v>
       </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>43914</v>
       </c>
       <c r="B20" s="8">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C20" s="8">
@@ -1803,55 +2086,153 @@
         <v>416</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" ref="E19:E20" si="2">D20-D19</f>
+        <f t="shared" ref="E20" si="4">D20-D19</f>
         <v>21</v>
       </c>
       <c r="F20" s="8">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>349</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>7013</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>6597</v>
+      </c>
+      <c r="K20" s="8">
+        <v>322</v>
+      </c>
+      <c r="L20" s="8">
+        <v>16</v>
+      </c>
+      <c r="M20" s="8">
+        <v>8</v>
+      </c>
+      <c r="N20" s="8">
+        <v>8</v>
+      </c>
+      <c r="O20" s="8">
+        <v>6</v>
+      </c>
+      <c r="P20" s="8">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>9</v>
+      </c>
+      <c r="R20" s="8">
+        <v>2</v>
+      </c>
+      <c r="S20" s="8">
         <v>5</v>
       </c>
-      <c r="G20" s="8">
-        <v>322</v>
-      </c>
-      <c r="H20" s="8">
-        <v>16</v>
-      </c>
-      <c r="I20" s="8">
-        <v>8</v>
-      </c>
-      <c r="J20" s="8">
-        <v>8</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="T20" s="8">
+        <v>19</v>
+      </c>
+      <c r="U20" s="8">
+        <v>2</v>
+      </c>
+      <c r="V20" s="8">
+        <v>1</v>
+      </c>
+      <c r="W20" s="8">
+        <v>10</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>43915</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8">
+        <v>480</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21" si="5">D21-D20</f>
+        <v>64</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1027</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>8040</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>7560</v>
+      </c>
+      <c r="K21" s="8">
+        <v>369</v>
+      </c>
+      <c r="L21" s="8">
+        <v>18</v>
+      </c>
+      <c r="M21" s="8">
+        <v>12</v>
+      </c>
+      <c r="N21" s="8">
+        <v>10</v>
+      </c>
+      <c r="O21" s="8">
+        <v>10</v>
+      </c>
+      <c r="P21" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>10</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2</v>
+      </c>
+      <c r="S21" s="8">
         <v>6</v>
       </c>
-      <c r="L20" s="8">
-        <v>4</v>
-      </c>
-      <c r="M20" s="8">
-        <v>9</v>
-      </c>
-      <c r="N20" s="8">
-        <v>2</v>
-      </c>
-      <c r="O20" s="8">
-        <v>5</v>
-      </c>
-      <c r="P20" s="8">
+      <c r="T21" s="8">
         <v>19</v>
       </c>
-      <c r="Q20" s="8">
-        <v>2</v>
-      </c>
-      <c r="R20" s="8">
-        <v>1</v>
-      </c>
-      <c r="S20" s="8">
-        <v>10</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
+      <c r="U21" s="8">
+        <v>2</v>
+      </c>
+      <c r="V21" s="8">
+        <v>1</v>
+      </c>
+      <c r="W21" s="8">
+        <v>11</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
         <v>3</v>
       </c>
     </row>
@@ -1860,7 +2241,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2EFCE-C058-4F04-B471-51945290F2EA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5" s="9">
+        <v>60</v>
+      </c>
+      <c r="D5" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB39B9E-0688-4AD4-8C69-1D280404DFA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85C99E3-EBDD-4539-8A6F-F0A7A14DC87E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1872,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D3763C-0359-41B9-A88E-D43678C96FA1}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
@@ -1954,7 +2465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49973FC-C21B-419D-86C5-7EE8496B9B44}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1994,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ADEF6E-6768-4EE4-A06F-16116EB8E717}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2007,7 +2518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA75DE2-DFBF-4DD1-886E-7BF3BF81DB3E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -2308,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D305DDB7-21EF-4064-9B3A-06591E83BC3A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -2840,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A4C348-BB07-4639-A7E1-78743117ECCB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2980,121 +3491,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2EFCE-C058-4F04-B471-51945290F2EA}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>4</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>61</v>
-      </c>
-      <c r="C4" s="9">
-        <v>27</v>
-      </c>
-      <c r="D4" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>109</v>
-      </c>
-      <c r="C5" s="9">
-        <v>60</v>
-      </c>
-      <c r="D5" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>28</v>
-      </c>
-      <c r="C6" s="9">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9">
-        <v>14</v>
-      </c>
-      <c r="D7" s="9">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>